--- a/biology/Mycologie/Morchella_deliciosa/Morchella_deliciosa.xlsx
+++ b/biology/Mycologie/Morchella_deliciosa/Morchella_deliciosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Morille délicieuse
 Morchella deliciosa, la morille délicieuse, est une espèce de champignons comestibles, du genre Morchella de la famille des Morchellaceae (ordre des Pezizales).
@@ -512,13 +524,50 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>L'espèce Morchella deliciosa a été décrite en 1822 par le mycologue suédois Elias Magnus Fries (1794-1878)[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Morchella deliciosa a été décrite en 1822 par le mycologue suédois Elias Magnus Fries (1794-1878),.
 Le nom correct complet (avec auteur) de ce taxon est Morchella deliciosa Fr..
-Ce taxon porte en français le nom vernaculaire ou normalisé suivant : morille délicieuse[3].
-Synonymes
-Morchella deliciosa a pour synonymes[1] :
+Ce taxon porte en français le nom vernaculaire ou normalisé suivant : morille délicieuse.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Morchella_deliciosa</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Morchella_deliciosa</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Morchella deliciosa a pour synonymes :
 Morchella conica var. deliciosa (Fr.) Cetto ;
 Morchella deliciosa var. elegans Boud ;
 Morchella deliciosa var. incarnata Quél ;
@@ -527,31 +576,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Morchella_deliciosa</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Mycologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Morchella_deliciosa</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Comestibilité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Excellent comestible.
 </t>
